--- a/documents/plannification_initiale.xlsx
+++ b/documents/plannification_initiale.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1D8A8A-E3FA-4F8F-AE3A-35453FC9849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00296601-77A5-422B-907B-227EBF19E1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="29010" windowHeight="23385" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification initiale" sheetId="17" r:id="rId1"/>
@@ -43,30 +43,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>Zugewiesen zu</t>
   </si>
@@ -89,10 +67,6 @@
   </si>
   <si>
     <t>Date de début</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-incrément de défilement</t>
   </si>
   <si>
     <t>Semaine 1</t>
@@ -260,9 +234,6 @@
     <t>Affichage des planètes sur leurs placements définit par l'api.</t>
   </si>
   <si>
-    <t>Affichage des satellites (objets proches) sur leurs placements définit par l'api.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint 2 </t>
   </si>
   <si>
@@ -287,9 +258,6 @@
     <t>Heures prévu</t>
   </si>
   <si>
-    <t>Création de la classe planètes</t>
-  </si>
-  <si>
     <t>Création de la classe satellite</t>
   </si>
   <si>
@@ -297,9 +265,6 @@
   </si>
   <si>
     <t>Création du fichier détenant les codes de planètes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout des  opérations dans les classes </t>
   </si>
   <si>
     <t>Création d'un contrôleur</t>
@@ -377,10 +342,23 @@
     <t>Ajout de changement de vitesse</t>
   </si>
   <si>
-    <t xml:space="preserve">Détail de la plannification de projet </t>
+    <t>Sprint reviews</t>
   </si>
   <si>
-    <t>Sprint reviews</t>
+    <t>Affichage des satellites (objets proches) sur leurs placements définis par l'api.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Incrément de défilement</t>
+  </si>
+  <si>
+    <t>Création de la classe planète</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout des opérations dans les classes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Détail de la planification de projet </t>
   </si>
 </sst>
 </file>
@@ -961,7 +939,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1337,10 +1315,10 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1370,12 +1348,6 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1385,10 +1357,7 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7434,8 +7403,8 @@
   </sheetPr>
   <dimension ref="A1:BK20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7534,17 +7503,17 @@
     <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="F4" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="138"/>
       <c r="J4" s="138"/>
@@ -7552,7 +7521,7 @@
       <c r="L4" s="138"/>
       <c r="M4" s="138"/>
       <c r="O4" s="139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="139"/>
       <c r="Q4" s="139"/>
@@ -7560,7 +7529,7 @@
       <c r="S4" s="139"/>
       <c r="T4" s="139"/>
       <c r="V4" s="140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" s="140"/>
       <c r="X4" s="140"/>
@@ -7568,14 +7537,14 @@
       <c r="Z4" s="140"/>
       <c r="AA4" s="140"/>
       <c r="AC4" s="141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD4" s="141"/>
       <c r="AE4" s="141"/>
       <c r="AF4" s="141"/>
       <c r="AG4" s="141"/>
       <c r="AI4" s="134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" s="134"/>
       <c r="AK4" s="134"/>
@@ -7589,17 +7558,17 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
-      <c r="F5" s="25" t="s">
-        <v>55</v>
+      <c r="F5" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="133"/>
       <c r="J5" s="133"/>
@@ -7608,7 +7577,7 @@
       <c r="M5" s="133"/>
       <c r="N5" s="105"/>
       <c r="O5" s="133" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P5" s="133"/>
       <c r="Q5" s="133"/>
@@ -7617,7 +7586,7 @@
       <c r="T5" s="133"/>
       <c r="U5" s="105"/>
       <c r="V5" s="133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W5" s="133"/>
       <c r="X5" s="133"/>
@@ -7626,7 +7595,7 @@
       <c r="AA5" s="133"/>
       <c r="AB5" s="105"/>
       <c r="AC5" s="133" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="AD5" s="133"/>
       <c r="AE5" s="133"/>
@@ -7634,7 +7603,7 @@
       <c r="AG5" s="133"/>
       <c r="AH5" s="105"/>
       <c r="AI5" s="133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AJ5" s="133"/>
       <c r="AK5" s="133"/>
@@ -7648,8 +7617,8 @@
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine4352[Start])=0,TODAY(),B11(Meilensteine4352[Start])),TODAY())</f>
+      <c r="C6" s="30">
+        <f>E12</f>
         <v>45048</v>
       </c>
       <c r="D6" s="25"/>
@@ -7658,7 +7627,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="37" t="str">
         <f ca="1">TEXT(H7,"MMMM")</f>
-        <v>May</v>
+        <v>mai</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
@@ -7708,7 +7677,7 @@
       <c r="AP6" s="37"/>
       <c r="AQ6" s="37" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"MMMM")=AJ6,TEXT(AQ7,"MMMM")=AC6,TEXT(AQ7,"MMMM")=V6,TEXT(AQ7,"MMMM")=O6),"",TEXT(AQ7,"MMMM"))</f>
-        <v>June</v>
+        <v>juin</v>
       </c>
       <c r="AR6" s="37"/>
       <c r="AS6" s="37"/>
@@ -7740,7 +7709,7 @@
     <row r="7" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="53" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C7" s="31">
         <v>0</v>
@@ -8044,19 +8013,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="48" t="str">
@@ -8352,11 +8321,11 @@
     <row r="11" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="147"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="15"/>
       <c r="G11" s="12"/>
       <c r="H11" s="10" t="str">
@@ -8587,15 +8556,15 @@
     <row r="12" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D12" s="13">
         <v>0</v>
       </c>
-      <c r="E12" s="148">
+      <c r="E12" s="132">
         <v>45048</v>
       </c>
       <c r="F12" s="15">
@@ -8824,11 +8793,11 @@
     <row r="13" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="148"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="15"/>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="str">
@@ -9059,15 +9028,15 @@
     <row r="14" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="13">
         <v>0</v>
       </c>
-      <c r="E14" s="148">
+      <c r="E14" s="132">
         <v>45054</v>
       </c>
       <c r="F14" s="15">
@@ -9299,11 +9268,11 @@
     <row r="15" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="148"/>
+      <c r="E15" s="132"/>
       <c r="F15" s="15"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10" t="str">
@@ -9534,7 +9503,7 @@
     <row r="16" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>20</v>
@@ -9542,7 +9511,7 @@
       <c r="D16" s="13">
         <v>0</v>
       </c>
-      <c r="E16" s="148">
+      <c r="E16" s="132">
         <v>45061</v>
       </c>
       <c r="F16" s="15">
@@ -9755,11 +9724,11 @@
     <row r="17" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="148"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="15"/>
       <c r="G17" s="12"/>
       <c r="H17" s="10" t="str">
@@ -9990,15 +9959,15 @@
     <row r="18" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="13">
         <v>0</v>
       </c>
-      <c r="E18" s="148">
+      <c r="E18" s="132">
         <v>45068</v>
       </c>
       <c r="F18" s="15">
@@ -10083,27 +10052,27 @@
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="102" t="str">
-        <f t="shared" ref="AB18:AG18" ca="1" si="23">IF(AND($C18="Ziel",AC$7&gt;=$E18,AC$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AC$7&gt;=$E18,AC$7&lt;=$E18+$F18-1),1,""))</f>
+        <f ca="1">IF(AND($C18="Ziel",AC$7&gt;=$E18,AC$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AC$7&gt;=$E18,AC$7&lt;=$E18+$F18-1),1,""))</f>
         <v/>
       </c>
       <c r="AC18" s="103" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">IF(AND($C18="Ziel",AD$7&gt;=$E18,AD$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AD$7&gt;=$E18,AD$7&lt;=$E18+$F18-1),1,""))</f>
         <v/>
       </c>
       <c r="AD18" s="63" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">IF(AND($C18="Ziel",AE$7&gt;=$E18,AE$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AE$7&gt;=$E18,AE$7&lt;=$E18+$F18-1),1,""))</f>
         <v/>
       </c>
       <c r="AE18" s="103" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">IF(AND($C18="Ziel",AF$7&gt;=$E18,AF$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AF$7&gt;=$E18,AF$7&lt;=$E18+$F18-1),1,""))</f>
         <v/>
       </c>
       <c r="AF18" s="104" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f ca="1">IF(AND($C18="Ziel",AG$7&gt;=$E18,AG$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AG$7&gt;=$E18,AG$7&lt;=$E18+$F18-1),1,""))</f>
         <v/>
       </c>
       <c r="AG18" s="10" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ref="AG18" ca="1" si="23">IF(AND($C18="Ziel",AH$7&gt;=$E18,AH$7&lt;=$E18+$F18-1),2,IF(AND($C18="Meilenstein",AH$7&gt;=$E18,AH$7&lt;=$E18+$F18-1),1,""))</f>
         <v/>
       </c>
       <c r="AI18" s="10" t="str">
@@ -10226,11 +10195,11 @@
     <row r="19" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="148"/>
+      <c r="E19" s="132"/>
       <c r="F19" s="15"/>
       <c r="G19" s="12"/>
       <c r="H19" s="10" t="str">
@@ -10461,15 +10430,15 @@
     <row r="20" spans="1:63" s="1" customFormat="1" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D20" s="13">
         <v>0</v>
       </c>
-      <c r="E20" s="148">
+      <c r="E20" s="132">
         <v>45076</v>
       </c>
       <c r="F20" s="15">
@@ -10888,7 +10857,7 @@
       <formula>AND(TODAY()&gt;=BK$7,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="238" yWindow="444" count="9">
+  <dataValidations xWindow="238" yWindow="444" count="10">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Scrollschrittweite" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="C7" xr:uid="{662A47A0-7258-440E-8D71-BC54CBC9C651}">
       <formula1>0</formula1>
     </dataValidation>
@@ -10903,12 +10872,18 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A11 A13" xr:uid="{D018285A-B1BB-4604-A67E-E25F048BC864}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Die Zellen I9 bis BL9 enthalten die Tagesnummer des Monats für den Monat, der im Zellenblock über jeder Datumszelle dargestellt ist, und werden automatisch berechnet._x000a_ Ändern Sie diese Zellen nicht._x000a_" sqref="A7" xr:uid="{1544BB7A-7F3E-469D-9CB6-4B9BACED7ACE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Eine Scrollleiste befindet sich in den Zellen I8 bis BL8._x000a_Um in der Zeitleiste vorwärts oder rückwärts zu springen, geben Sie in Zelle C7 einen Wert von 0 oder höher ein._x000a_Ein Wert von 0 führt Sie zum Anfang des Diagramms." sqref="A8" xr:uid="{737D7247-B514-41B2-94CC-2F538E17DE66}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16 C20 C18 C14 C12" xr:uid="{146642EA-0634-479E-B331-B633905B491E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16 C20 C18 C14" xr:uid="{146642EA-0634-479E-B331-B633905B491E}">
       <formula1>"API,Planettes,Satelites,UI"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{97A8C437-E4EE-4377-B50C-11430CA5C1B5}">
+      <formula1>"Base du projet,API,Planettes,Satelites,UI"</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P de &amp;N</oddFooter>
+  </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="14" max="16383" man="1"/>
   </rowBreaks>
@@ -11060,8 +11035,8 @@
   </sheetPr>
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11080,7 +11055,7 @@
     <row r="2" spans="1:41" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="135" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -11138,17 +11113,17 @@
     <row r="4" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="F4" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="138" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="138"/>
       <c r="J4" s="138"/>
@@ -11156,7 +11131,7 @@
       <c r="L4" s="138"/>
       <c r="M4" s="138"/>
       <c r="O4" s="139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="139"/>
       <c r="Q4" s="139"/>
@@ -11164,7 +11139,7 @@
       <c r="S4" s="139"/>
       <c r="T4" s="139"/>
       <c r="V4" s="140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="W4" s="140"/>
       <c r="X4" s="140"/>
@@ -11172,14 +11147,14 @@
       <c r="Z4" s="140"/>
       <c r="AA4" s="140"/>
       <c r="AC4" s="141" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD4" s="141"/>
       <c r="AE4" s="141"/>
       <c r="AF4" s="141"/>
       <c r="AG4" s="141"/>
       <c r="AI4" s="134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" s="134"/>
       <c r="AK4" s="134"/>
@@ -11193,67 +11168,66 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="26"/>
       <c r="F5" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="133" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="133"/>
+      <c r="M5" s="133"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="133" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="142"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="142" t="s">
+      <c r="P5" s="133"/>
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="133" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="142" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142"/>
-      <c r="AL5" s="142"/>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="142"/>
-      <c r="AO5" s="142"/>
+      <c r="W5" s="133"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="133"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="133" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="133"/>
+      <c r="AH5" s="105"/>
+      <c r="AI5" s="133" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="133"/>
+      <c r="AM5" s="133"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="133"/>
     </row>
     <row r="6" spans="1:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(#REF!)=0,TODAY(),B10(#REF!)),TODAY())</f>
+      <c r="C6" s="14">
         <v>45048</v>
       </c>
       <c r="D6" s="25"/>
@@ -11342,19 +11316,19 @@
         <v>3</v>
       </c>
       <c r="B8" s="111" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="112" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="109"/>
@@ -11438,7 +11412,7 @@
     <row r="10" spans="1:41" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="117" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="117"/>
       <c r="D10" s="117"/>
@@ -11483,10 +11457,10 @@
     <row r="11" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="118" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="120">
         <v>0</v>
@@ -11536,10 +11510,10 @@
     <row r="12" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="118" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="120">
         <v>0</v>
@@ -11587,10 +11561,10 @@
     <row r="13" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="118" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C13" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="120">
         <v>0</v>
@@ -11640,10 +11614,10 @@
     <row r="14" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="118" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="120">
         <v>0</v>
@@ -11693,10 +11667,10 @@
     <row r="15" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="118" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="120">
         <v>0</v>
@@ -11746,10 +11720,10 @@
     <row r="16" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="118" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="120">
         <v>0</v>
@@ -11799,10 +11773,10 @@
     <row r="17" spans="1:41" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="118" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="120">
         <v>0</v>
@@ -11852,7 +11826,7 @@
     <row r="18" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
@@ -11897,10 +11871,10 @@
     <row r="19" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="118" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="120">
         <v>0</v>
@@ -11950,10 +11924,10 @@
     <row r="20" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="118" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C20" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="120">
         <v>0</v>
@@ -12003,10 +11977,10 @@
     <row r="21" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="118" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C21" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="120">
         <v>0</v>
@@ -12056,10 +12030,10 @@
     <row r="22" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="118" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="120">
         <v>0</v>
@@ -12109,10 +12083,10 @@
     <row r="23" spans="1:41" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="118" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="120">
         <v>0</v>
@@ -12162,10 +12136,10 @@
     <row r="24" spans="1:41" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="118" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C24" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="120">
         <v>0</v>
@@ -12215,10 +12189,10 @@
     <row r="25" spans="1:41" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="118" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="120">
         <v>0</v>
@@ -12268,10 +12242,10 @@
     <row r="26" spans="1:41" s="1" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="118" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" s="120">
         <v>0</v>
@@ -12321,10 +12295,10 @@
     <row r="27" spans="1:41" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="118" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="120">
         <v>0</v>
@@ -12374,7 +12348,7 @@
     <row r="28" spans="1:41" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="126"/>
       <c r="D28" s="126"/>
@@ -12418,10 +12392,10 @@
     </row>
     <row r="29" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="118" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="120">
         <v>0</v>
@@ -12435,10 +12409,10 @@
     </row>
     <row r="30" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="118" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C30" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="120">
         <v>0</v>
@@ -12452,10 +12426,10 @@
     </row>
     <row r="31" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="118" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C31" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="120">
         <v>0</v>
@@ -12469,10 +12443,10 @@
     </row>
     <row r="32" spans="1:41" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="118" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C32" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="120">
         <v>0</v>
@@ -12486,10 +12460,10 @@
     </row>
     <row r="33" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="118" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="120">
         <v>0</v>
@@ -12503,10 +12477,10 @@
     </row>
     <row r="34" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="118" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C34" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="120">
         <v>0</v>
@@ -12520,7 +12494,7 @@
     </row>
     <row r="35" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="128"/>
       <c r="D35" s="128"/>
@@ -12529,10 +12503,10 @@
     </row>
     <row r="36" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="118" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="120">
         <v>0</v>
@@ -12546,10 +12520,10 @@
     </row>
     <row r="37" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="118" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C37" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="120">
         <v>0</v>
@@ -12563,10 +12537,10 @@
     </row>
     <row r="38" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="118" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="120">
         <v>0</v>
@@ -12580,10 +12554,10 @@
     </row>
     <row r="39" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="118" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C39" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="120">
         <v>0</v>
@@ -12597,10 +12571,10 @@
     </row>
     <row r="40" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="118" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="120">
         <v>0</v>
@@ -12614,10 +12588,10 @@
     </row>
     <row r="41" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="118" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="120">
         <v>0</v>
@@ -12631,7 +12605,7 @@
     </row>
     <row r="42" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="129" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" s="130"/>
       <c r="D42" s="130"/>
@@ -12640,10 +12614,10 @@
     </row>
     <row r="43" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="118" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43" s="120">
         <v>0</v>
@@ -12657,10 +12631,10 @@
     </row>
     <row r="44" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="118" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="120">
         <v>0</v>
@@ -12674,10 +12648,10 @@
     </row>
     <row r="45" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="118" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="120">
         <v>0</v>
@@ -12691,10 +12665,10 @@
     </row>
     <row r="46" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="118" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="120">
         <v>0</v>
@@ -12708,10 +12682,10 @@
     </row>
     <row r="47" spans="2:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="118" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C47" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="120">
         <v>0</v>
@@ -13862,8 +13836,11 @@
       <formula1>"Base du projet,API,Planettes,Satelites,UI"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P de &amp;N</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -14046,8 +14023,8 @@
   </sheetPr>
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14069,7 +14046,7 @@
     <row r="2" spans="1:21" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -14107,30 +14084,30 @@
     <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="25"/>
       <c r="E4" s="26"/>
       <c r="G4" s="76"/>
       <c r="H4" s="85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" s="85"/>
       <c r="J4" s="138" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="138"/>
-      <c r="M4" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="145"/>
-      <c r="P4" s="146" t="s">
+      <c r="M4" s="143" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="143"/>
+      <c r="P4" s="144" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="144"/>
+      <c r="S4" s="134" t="s">
         <v>49</v>
-      </c>
-      <c r="Q4" s="146"/>
-      <c r="S4" s="134" t="s">
-        <v>50</v>
       </c>
       <c r="T4" s="134"/>
     </row>
@@ -14139,7 +14116,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
@@ -14160,21 +14137,20 @@
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="30" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Meilensteine43523[Colonne3])=0,TODAY(),B11(Meilensteine43523[Colonne3])),TODAY())</f>
+      <c r="C6" s="14">
         <v>45048</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="26"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="143"/>
+        <v>47</v>
+      </c>
+      <c r="J6" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="145"/>
       <c r="Q6" s="79"/>
       <c r="R6" s="79"/>
       <c r="S6" s="79"/>
@@ -14183,18 +14159,14 @@
     </row>
     <row r="7" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="31">
-        <v>0</v>
-      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="32"/>
       <c r="H7" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -14238,47 +14210,47 @@
         <v>3</v>
       </c>
       <c r="B9" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="D9" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="E9" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="F9" s="84" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="84" t="s">
-        <v>30</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="87" t="s">
+      <c r="J9" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="K9" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="L9" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="M9" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="87" t="s">
+      <c r="N9" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="86" t="s">
+      <c r="O9" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="87" t="s">
+      <c r="P9" s="86" t="s">
         <v>45</v>
-      </c>
-      <c r="P9" s="86" t="s">
-        <v>46</v>
       </c>
       <c r="Q9" s="82" t="str">
         <f t="shared" ref="Q9:U9" si="0">LEFT(TEXT(Q7,""),1)</f>
@@ -14325,7 +14297,7 @@
     <row r="11" spans="1:21" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
@@ -14453,7 +14425,7 @@
     <row r="13" spans="1:21" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
@@ -14517,7 +14489,7 @@
     <row r="14" spans="1:21" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -14580,14 +14552,14 @@
     <row r="15" spans="1:21" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="132"/>
+      <c r="H15" s="131"/>
       <c r="I15" s="91"/>
       <c r="J15" s="91"/>
       <c r="K15" s="92"/>
@@ -14632,7 +14604,7 @@
     <row r="16" spans="1:21" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
@@ -14699,7 +14671,7 @@
     <row r="17" spans="1:21" s="1" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
@@ -14769,42 +14741,42 @@
     </row>
     <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="144" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
+        <v>52</v>
+      </c>
+      <c r="C19" s="142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
     </row>
     <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
     </row>
     <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="95"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
     </row>
     <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="96"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="96"/>
@@ -14835,15 +14807,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="C19:H22"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="D9:D17">
@@ -15002,8 +14974,11 @@
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P de &amp;N</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -15351,16 +15326,16 @@
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c09d9cde-feef-4b39-8e64-b7cd411b8c76"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="1ad4f3a6-d89c-44bc-9c8b-489a5a14983e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c09d9cde-feef-4b39-8e64-b7cd411b8c76"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>